--- a/data/input.xlsx
+++ b/data/input.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
@@ -67,20 +67,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -91,6 +85,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -117,13 +117,18 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -202,6 +207,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -236,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -411,21 +418,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,14 +443,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -454,21 +461,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -479,14 +486,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -497,12 +504,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
